--- a/semestr-vii/re-jacek/rekonfigurowalnosc.xlsx
+++ b/semestr-vii/re-jacek/rekonfigurowalnosc.xlsx
@@ -191,7 +191,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -304,327 +304,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Dashboard</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2804.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4441.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3942.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5522.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5424.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7965.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13733.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21508.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Profile 1</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3402.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4935.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4454.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5501.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5628.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8221.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14292.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22213.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Profile 2</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3510.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5175.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4674.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5523.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5777.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8348.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13010.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18574.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -635,21 +314,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095803848"/>
-        <c:axId val="2095806968"/>
+        <c:axId val="2042154376"/>
+        <c:axId val="2042157544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095803848"/>
+        <c:axId val="2042154376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość użytkowników</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095806968"/>
+        <c:crossAx val="2042157544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -657,27 +355,41 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095806968"/>
+        <c:axId val="2042157544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Średni czas odpowiedzi [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095803848"/>
+        <c:crossAx val="2042154376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
@@ -704,7 +416,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -714,7 +426,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>globa;</c:v>
+            <c:v>Średni czas</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -811,327 +523,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.4151</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>profile 1</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$38:$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$38:$E$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7965</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6212</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3805</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.319857142857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.321625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.337888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3703</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>dashboard</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$38:$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$38:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.815916666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.631733333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.404444444444444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.342714285714286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.344208333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.358814814814815</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4151</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>profile 2</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$38:$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$38:$F$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.622</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.616379310344828</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.348714285714286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3675</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.401555555555556</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,21 +539,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095873400"/>
-        <c:axId val="2095876520"/>
+        <c:axId val="2069282984"/>
+        <c:axId val="2069286104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095873400"/>
+        <c:axId val="2069282984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość użytkowników</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095876520"/>
+        <c:crossAx val="2069286104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1170,27 +580,41 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095876520"/>
+        <c:axId val="2069286104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gotowość [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095873400"/>
+        <c:crossAx val="2069282984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1217,11 +641,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1362,21 +782,45 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095897624"/>
-        <c:axId val="2095900568"/>
+        <c:axId val="2069307288"/>
+        <c:axId val="2069310232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095897624"/>
+        <c:axId val="2069307288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> użytkowników</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095900568"/>
+        <c:crossAx val="2069310232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1384,27 +828,41 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095900568"/>
+        <c:axId val="2069310232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Średni czas odpowiedzi [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095897624"/>
+        <c:crossAx val="2069307288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1431,13 +889,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0553134156606608"/>
+          <c:y val="0.0186335403726708"/>
+          <c:w val="0.940178044388565"/>
+          <c:h val="0.779668900083142"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1576,11 +1040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095931784"/>
-        <c:axId val="2095934728"/>
+        <c:axId val="2070411672"/>
+        <c:axId val="2070414616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095931784"/>
+        <c:axId val="2070411672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095934728"/>
+        <c:crossAx val="2070414616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1598,27 +1062,45 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095934728"/>
+        <c:axId val="2070414616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gotowość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095931784"/>
+        <c:crossAx val="2070411672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1655,7 +1137,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>new</c:v>
+            <c:v>po</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1732,7 +1214,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>old</c:v>
+            <c:v>przed</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1815,21 +1297,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120020120"/>
-        <c:axId val="2119382312"/>
+        <c:axId val="2070444440"/>
+        <c:axId val="2070447416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120020120"/>
+        <c:axId val="2070444440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość użytkowników</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119382312"/>
+        <c:crossAx val="2070447416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1837,18 +1338,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119382312"/>
+        <c:axId val="2070447416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Średni czas odpowiedzi [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120020120"/>
+        <c:crossAx val="2070444440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1894,7 +1414,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>old</c:v>
+            <c:v>przed</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1971,7 +1491,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>new</c:v>
+            <c:v>po</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2054,21 +1574,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119427608"/>
-        <c:axId val="2119434680"/>
+        <c:axId val="2070474936"/>
+        <c:axId val="2070477912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119427608"/>
+        <c:axId val="2070474936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość użytkowników</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119434680"/>
+        <c:crossAx val="2070477912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2076,18 +1615,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119434680"/>
+        <c:axId val="2070477912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gotowość [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119427608"/>
+        <c:crossAx val="2070474936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2115,14 +1673,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2146,11 +1704,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -2204,15 +1762,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2233,14 +1791,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -2263,16 +1821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2618,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/semestr-vii/re-jacek/rekonfigurowalnosc.xlsx
+++ b/semestr-vii/re-jacek/rekonfigurowalnosc.xlsx
@@ -1050,6 +1050,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ilość użytkowników</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1769,8 +1788,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2176,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="T136" sqref="T136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/semestr-vii/re-jacek/rekonfigurowalnosc.xlsx
+++ b/semestr-vii/re-jacek/rekonfigurowalnosc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,10 +208,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -235,31 +235,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>110.0</c:v>
                 </c:pt>
@@ -283,21 +268,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4357.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5515.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5610.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8178.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13679.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20765.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,11 +284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2042154376"/>
-        <c:axId val="2042157544"/>
+        <c:axId val="2111400456"/>
+        <c:axId val="2111406008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2042154376"/>
+        <c:axId val="2111400456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -347,7 +317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2042157544"/>
+        <c:crossAx val="2111406008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -355,7 +325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2042157544"/>
+        <c:axId val="2111406008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2042154376"/>
+        <c:crossAx val="2111400456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -433,10 +403,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$B$50</c:f>
+              <c:f>Sheet1!$B$38:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -460,31 +430,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$C$50</c:f>
+              <c:f>Sheet1!$C$38:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -508,21 +463,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.631733333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.404444444444444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.342714285714286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.344208333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.358814814814815</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,11 +479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2069282984"/>
-        <c:axId val="2069286104"/>
+        <c:axId val="2111432296"/>
+        <c:axId val="2111437816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2069282984"/>
+        <c:axId val="2111432296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069286104"/>
+        <c:crossAx val="2111437816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2069286104"/>
+        <c:axId val="2111437816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069282984"/>
+        <c:crossAx val="2111432296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -782,11 +722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2069307288"/>
-        <c:axId val="2069310232"/>
+        <c:axId val="2111464072"/>
+        <c:axId val="2111469752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2069307288"/>
+        <c:axId val="2111464072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069310232"/>
+        <c:crossAx val="2111469752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -828,7 +768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2069310232"/>
+        <c:axId val="2111469752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,7 +798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069307288"/>
+        <c:crossAx val="2111464072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,11 +980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2070411672"/>
-        <c:axId val="2070414616"/>
+        <c:axId val="2111495352"/>
+        <c:axId val="2111500792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2070411672"/>
+        <c:axId val="2111495352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070414616"/>
+        <c:crossAx val="2111500792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1081,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070414616"/>
+        <c:axId val="2111500792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070411672"/>
+        <c:crossAx val="2111495352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1316,11 +1256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2070444440"/>
-        <c:axId val="2070447416"/>
+        <c:axId val="2111530136"/>
+        <c:axId val="2111535608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2070444440"/>
+        <c:axId val="2111530136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070447416"/>
+        <c:crossAx val="2111535608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1357,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070447416"/>
+        <c:axId val="2111535608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070444440"/>
+        <c:crossAx val="2111530136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1423,7 +1363,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1433,6 +1373,83 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>po</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$111:$G$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3800.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4800.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$111:$E$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
             <c:v>przed</c:v>
           </c:tx>
           <c:marker>
@@ -1440,7 +1457,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$111:$C$118</c:f>
+              <c:f>Sheet1!$G$111:$G$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1500,83 +1517,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>47.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>po</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$111:$C$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2600.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3800.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4200.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4800.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$111:$E$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,11 +1533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2070474936"/>
-        <c:axId val="2070477912"/>
+        <c:axId val="2111565720"/>
+        <c:axId val="2111571208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2070474936"/>
+        <c:axId val="2111565720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070477912"/>
+        <c:crossAx val="2111571208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1634,7 +1574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070477912"/>
+        <c:axId val="2111571208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070474936"/>
+        <c:crossAx val="2111565720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="T136" sqref="T136"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3074,7 +3014,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/semestr-vii/re-jacek/rekonfigurowalnosc.xlsx
+++ b/semestr-vii/re-jacek/rekonfigurowalnosc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,11 +284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111400456"/>
-        <c:axId val="2111406008"/>
+        <c:axId val="2134058680"/>
+        <c:axId val="2134567608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111400456"/>
+        <c:axId val="2134058680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,7 +317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111406008"/>
+        <c:crossAx val="2134567608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -325,7 +325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111406008"/>
+        <c:axId val="2134567608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,7 +355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111400456"/>
+        <c:crossAx val="2134058680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -479,11 +479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111432296"/>
-        <c:axId val="2111437816"/>
+        <c:axId val="2134816184"/>
+        <c:axId val="2134812808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111432296"/>
+        <c:axId val="2134816184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,7 +512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111437816"/>
+        <c:crossAx val="2134812808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -520,7 +520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111437816"/>
+        <c:axId val="2134812808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111432296"/>
+        <c:crossAx val="2134816184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -722,11 +722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111464072"/>
-        <c:axId val="2111469752"/>
+        <c:axId val="2134599560"/>
+        <c:axId val="2134036728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111464072"/>
+        <c:axId val="2134599560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111469752"/>
+        <c:crossAx val="2134036728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -768,7 +768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111469752"/>
+        <c:axId val="2134036728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111464072"/>
+        <c:crossAx val="2134599560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -980,11 +980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111495352"/>
-        <c:axId val="2111500792"/>
+        <c:axId val="2134868984"/>
+        <c:axId val="2134582600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111495352"/>
+        <c:axId val="2134868984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111500792"/>
+        <c:crossAx val="2134582600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111500792"/>
+        <c:axId val="2134582600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111495352"/>
+        <c:crossAx val="2134868984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1256,11 +1256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111530136"/>
-        <c:axId val="2111535608"/>
+        <c:axId val="2134400264"/>
+        <c:axId val="2134409128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111530136"/>
+        <c:axId val="2134400264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111535608"/>
+        <c:crossAx val="2134409128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1297,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111535608"/>
+        <c:axId val="2134409128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111530136"/>
+        <c:crossAx val="2134400264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,11 +1533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111565720"/>
-        <c:axId val="2111571208"/>
+        <c:axId val="2134590456"/>
+        <c:axId val="2134363352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111565720"/>
+        <c:axId val="2134590456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,7 +1566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111571208"/>
+        <c:crossAx val="2134363352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1574,7 +1574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111571208"/>
+        <c:axId val="2134363352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111565720"/>
+        <c:crossAx val="2134590456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2135,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
       <selection activeCell="B46" sqref="B46:F50"/>
     </sheetView>
   </sheetViews>
